--- a/settings.xlsx
+++ b/settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\vscode\goFastForVideo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166E3FD4-8122-412C-B486-5A04B98648D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5CBEBE-380B-4E3E-B04E-F4AECA2FD668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="23040" windowHeight="12156" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>userName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -35,27 +35,54 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>330726198508097216</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>32030519841022041x</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>完成时间（单位秒）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2021,2022</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>年份（多个用英文逗号隔开）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2021,2022,2019,2020</t>
+    <t>320323199303111047</t>
+  </si>
+  <si>
+    <t>320323199003091021</t>
+  </si>
+  <si>
+    <t>320323199201041025</t>
+  </si>
+  <si>
+    <t>320323199502101220</t>
+  </si>
+  <si>
+    <t>320323199904141022</t>
+  </si>
+  <si>
+    <t>320323197708131047</t>
+  </si>
+  <si>
+    <t>320323197702031213</t>
+  </si>
+  <si>
+    <t>320323198809277920</t>
+  </si>
+  <si>
+    <t>123456</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -63,7 +90,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +114,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -96,7 +129,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -113,6 +146,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -120,11 +166,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="标题 1" xfId="1" builtinId="16"/>
@@ -406,21 +455,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.88671875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="37.9140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="26.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="43.21875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="43.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26.4140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -428,38 +477,122 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1234567</v>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D2" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
+    <row r="3" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="B3" s="3">
         <v>123456</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3">
+        <v>123456</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3">
+        <v>123456</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3">
+        <v>123456</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3">
+        <v>123456</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="B8" s="3">
+        <v>123456</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3">
+        <v>123456</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\vscode\goFastForVideo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5CBEBE-380B-4E3E-B04E-F4AECA2FD668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6F3E6E-9B44-4A79-B611-79C8F31FBAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="1860" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>userName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -43,46 +43,17 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>320323199303111047</t>
-  </si>
-  <si>
-    <t>320323199003091021</t>
-  </si>
-  <si>
-    <t>320323199201041025</t>
-  </si>
-  <si>
-    <t>320323199502101220</t>
-  </si>
-  <si>
-    <t>320323199904141022</t>
-  </si>
-  <si>
-    <t>320323197708131047</t>
-  </si>
-  <si>
-    <t>320323197702031213</t>
-  </si>
-  <si>
     <t>320323198809277920</t>
   </si>
   <si>
-    <t>123456</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2022</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2022</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
-    <t>10</t>
+    <t>让你笑</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -90,7 +61,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +89,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -166,12 +144,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -455,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -484,115 +465,31 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>12</v>
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3">
+        <v>123456</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="3">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3">
         <v>123456</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="3">
-        <v>123456</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3">
-        <v>123456</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3">
-        <v>123456</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="3">
-        <v>123456</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="3">
-        <v>123456</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="3">
-        <v>123456</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\vscode\goFastForVideo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6F3E6E-9B44-4A79-B611-79C8F31FBAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C920CDE9-7298-4217-BDEB-DC58EAC836DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="23040" windowHeight="12156" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>userName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -43,17 +43,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>320323198809277920</t>
-  </si>
-  <si>
-    <t>2022</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
-    <t>让你笑</t>
+    <t>123456</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>320323196910060022</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017,2018,2019</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -61,7 +62,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,12 +85,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -144,15 +139,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -436,21 +428,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.9140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="37.88671875" style="3" customWidth="1"/>
     <col min="2" max="2" width="26.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="43.25" style="3" customWidth="1"/>
-    <col min="4" max="4" width="26.4140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="43.21875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -464,32 +456,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3">
-        <v>123456</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="3">
-        <v>123456</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\vscode\goFastForVideo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C920CDE9-7298-4217-BDEB-DC58EAC836DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6639CBF5-1FC0-480A-9CD7-245A45A5B2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="23040" windowHeight="12156" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,15 +46,15 @@
     <t>10</t>
   </si>
   <si>
-    <t>123456</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>320323196910060022</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017,2018,2019</t>
+    <t>2021</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>342221198605084016</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tangheng251</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -431,18 +431,18 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.88671875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="37.9140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="26.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="43.21875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="43.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26.4140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -456,15 +456,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>4</v>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\vscode\goFastForVideo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6639CBF5-1FC0-480A-9CD7-245A45A5B2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D429554A-61DD-4214-8EA6-C0845F9FC2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,11 +50,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>342221198605084016</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tangheng251</t>
+    <t>yun1205</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -431,7 +431,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\vscode\goFastForVideo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D429554A-61DD-4214-8EA6-C0845F9FC2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3E4017-3491-4CA0-9E93-8BACB0D90CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>userName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -46,15 +46,19 @@
     <t>10</t>
   </si>
   <si>
-    <t>2021</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>yun1205</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>123456</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>320302198301050045</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>320302198101071220</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -428,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -461,12 +465,26 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\vscode\goFastForVideo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3E4017-3491-4CA0-9E93-8BACB0D90CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5B595F-F5A9-40A2-906F-0D3C51755BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>userName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -43,30 +43,40 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10</t>
+    <t>340603198902100622</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kxy100200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>320304198909303621</t>
   </si>
   <si>
     <t>123456</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>320302198301050045</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>320302198101071220</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>320323199510157064</t>
+  </si>
+  <si>
+    <t>qx1111</t>
+  </si>
+  <si>
+    <t>320301198501100012</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,10 +102,27 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -106,7 +133,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -123,19 +150,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -143,13 +157,22 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -432,21 +455,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.9140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="37.88671875" style="3" customWidth="1"/>
     <col min="2" max="2" width="26.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="43.25" style="3" customWidth="1"/>
-    <col min="4" max="4" width="26.4140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="43.21875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -460,32 +483,60 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="7" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="3" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>4</v>
+    </row>
+    <row r="4" spans="1:4" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\vscode\goFastForVideo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5B595F-F5A9-40A2-906F-0D3C51755BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0D42C7-B963-4430-8095-278AA5B9D6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>userName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -43,33 +43,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>340603198902100622</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>kxy100200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
-    <t>320304198909303621</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>320323199510157064</t>
-  </si>
-  <si>
-    <t>qx1111</t>
-  </si>
-  <si>
-    <t>320301198501100012</t>
+    <t>320321197202151814</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a-123456</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -455,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -485,58 +471,16 @@
     </row>
     <row r="2" spans="1:4" s="7" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\vscode\goFastForVideo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0D42C7-B963-4430-8095-278AA5B9D6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1EAE7A-C9E5-4438-B64F-14AA7B1A31C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,15 +46,15 @@
     <t>5</t>
   </si>
   <si>
+    <t>2020,2019,2017,2018</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>320321197202151814</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>a-123456</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -444,7 +444,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -471,13 +471,13 @@
     </row>
     <row r="2" spans="1:4" s="7" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>4</v>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\vscode\goFastForVideo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1EAE7A-C9E5-4438-B64F-14AA7B1A31C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3707F3D-9D5E-49FC-810B-F8CE70AFC790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1910" yWindow="2510" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,15 +46,15 @@
     <t>5</t>
   </si>
   <si>
-    <t>2020,2019,2017,2018</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>320321197202151814</t>
+    <t>320324198904250685</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>a-123456</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -444,18 +444,18 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.88671875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="37.9140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="26.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="43.21875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="43.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26.4140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -469,15 +469,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="7" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="7" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>4</v>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\vscode\goFastForVideo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3707F3D-9D5E-49FC-810B-F8CE70AFC790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4256BE5E-01B1-423D-A10B-5D2A9188A43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1910" yWindow="2510" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3456" yWindow="3456" windowWidth="23040" windowHeight="12156" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,15 +46,15 @@
     <t>5</t>
   </si>
   <si>
-    <t>320324198904250685</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a-123456</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2022</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZRBpzkqzx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZRBpzkqzx-0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -444,18 +444,18 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.9140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="37.88671875" style="3" customWidth="1"/>
     <col min="2" max="2" width="26.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="43.25" style="3" customWidth="1"/>
-    <col min="4" max="4" width="26.4140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="43.21875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -469,15 +469,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="7" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="7" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>4</v>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\vscode\goFastForVideo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4256BE5E-01B1-423D-A10B-5D2A9188A43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA64189-78F7-4363-8B25-28CAD4FF5F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3456" yWindow="3456" windowWidth="23040" windowHeight="12156" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,15 +46,15 @@
     <t>5</t>
   </si>
   <si>
-    <t>2022</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZRBpzkqzx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZRBpzkqzx-0</t>
+    <t>320326197608274429</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a-123456</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -444,18 +444,18 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.88671875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="37.9140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="26.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="43.21875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="43.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26.4140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -469,15 +469,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="7" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="7" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>4</v>
